--- a/技术图纸/调度平台图纸/墙体图纸/7寸宽墙体图纸/36寸墙体图纸/11963641  7寸宽36寸长42寸高墙体灰色右数据.xlsx
+++ b/技术图纸/调度平台图纸/墙体图纸/7寸宽墙体图纸/36寸墙体图纸/11963641  7寸宽36寸长42寸高墙体灰色右数据.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>序号</t>
   </si>
@@ -183,29 +183,6 @@
   </si>
   <si>
     <t>碰珠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J-07-02</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06210014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破二联插座</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -595,7 +572,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,33 +705,120 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -764,95 +828,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1174,16 +1166,16 @@
     <row r="2" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -1191,20 +1183,20 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="59">
         <f ca="1">TODAY()</f>
-        <v>42122</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="82" t="s">
+        <v>42209</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="73" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1216,17 +1208,17 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="B5" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1"/>
@@ -1236,20 +1228,20 @@
       <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="79"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="85"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="30" t="s">
         <v>6</v>
       </c>
@@ -1258,23 +1250,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B8" s="65">
+      <c r="B8" s="75">
         <v>1</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="31">
         <v>1</v>
       </c>
       <c r="F8" s="31">
         <v>11010000</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="32">
         <v>1</v>
       </c>
@@ -1283,21 +1275,21 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="59"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="72"/>
       <c r="E9" s="31">
         <v>2</v>
       </c>
       <c r="F9" s="32">
         <v>11013601</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="59"/>
+      <c r="G9" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="72"/>
       <c r="I9" s="32">
         <v>1</v>
       </c>
@@ -1306,21 +1298,21 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1">
-      <c r="B10" s="65"/>
-      <c r="C10" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="59"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="72"/>
       <c r="E10" s="31">
         <v>3</v>
       </c>
       <c r="F10" s="32">
         <v>11013602</v>
       </c>
-      <c r="G10" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="59"/>
+      <c r="G10" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="72"/>
       <c r="I10" s="32">
         <v>1</v>
       </c>
@@ -1329,21 +1321,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="59"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="72"/>
       <c r="E11" s="31">
         <v>4</v>
       </c>
       <c r="F11" s="32">
         <v>11013604</v>
       </c>
-      <c r="G11" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="59"/>
+      <c r="G11" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="72"/>
       <c r="I11" s="32">
         <v>1</v>
       </c>
@@ -1352,21 +1344,21 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B12" s="65"/>
-      <c r="C12" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="59"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="72"/>
       <c r="E12" s="34">
         <v>5</v>
       </c>
       <c r="F12" s="32">
         <v>11023611</v>
       </c>
-      <c r="G12" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="59"/>
+      <c r="G12" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="72"/>
       <c r="I12" s="32">
         <v>1</v>
       </c>
@@ -1375,21 +1367,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B13" s="65"/>
-      <c r="C13" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="59"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="72"/>
       <c r="E13" s="34">
         <v>6</v>
       </c>
       <c r="F13" s="32">
         <v>11023612</v>
       </c>
-      <c r="G13" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="59"/>
+      <c r="G13" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="72"/>
       <c r="I13" s="32">
         <v>1</v>
       </c>
@@ -1398,21 +1390,21 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B14" s="65"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="34">
         <v>7</v>
       </c>
       <c r="F14" s="32">
         <v>11030000</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="32">
         <v>2</v>
       </c>
@@ -1421,21 +1413,21 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B15" s="65"/>
-      <c r="C15" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="61"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="74"/>
       <c r="E15" s="39">
         <v>8</v>
       </c>
       <c r="F15" s="40">
         <v>11032700</v>
       </c>
-      <c r="G15" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="61"/>
+      <c r="G15" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="74"/>
       <c r="I15" s="40">
         <v>1</v>
       </c>
@@ -1444,21 +1436,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B16" s="65"/>
-      <c r="C16" s="60" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="39">
         <v>9</v>
       </c>
       <c r="F16" s="40">
         <v>11040001</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="61"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="40">
         <v>1</v>
       </c>
@@ -1467,21 +1459,21 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B17" s="65"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="61"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="39">
         <v>10</v>
       </c>
       <c r="F17" s="40">
         <v>11040002</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="61"/>
+      <c r="H17" s="74"/>
       <c r="I17" s="40">
         <v>2</v>
       </c>
@@ -1490,21 +1482,21 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B18" s="65"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="39">
         <v>11</v>
       </c>
       <c r="F18" s="40">
         <v>11040003</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="61"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="40">
         <v>1</v>
       </c>
@@ -1513,21 +1505,21 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B19" s="65"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="39">
         <v>12</v>
       </c>
       <c r="F19" s="40">
         <v>11049002</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="61"/>
+      <c r="H19" s="74"/>
       <c r="I19" s="40">
         <v>1</v>
       </c>
@@ -1536,21 +1528,21 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="59"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="72"/>
       <c r="E20" s="34">
         <v>13</v>
       </c>
       <c r="F20" s="32">
         <v>11053600</v>
       </c>
-      <c r="G20" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="59"/>
+      <c r="G20" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="72"/>
       <c r="I20" s="32">
         <v>1</v>
       </c>
@@ -1559,21 +1551,21 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B21" s="65"/>
-      <c r="C21" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="59"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="72"/>
       <c r="E21" s="34">
         <v>14</v>
       </c>
       <c r="F21" s="32">
         <v>11053620</v>
       </c>
-      <c r="G21" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="59"/>
+      <c r="G21" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="72"/>
       <c r="I21" s="32">
         <v>1</v>
       </c>
@@ -1585,18 +1577,18 @@
       <c r="B22" s="28">
         <v>2</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="28"/>
       <c r="F22" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="52"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="36">
         <v>4</v>
       </c>
@@ -1606,18 +1598,18 @@
       <c r="B23" s="28">
         <v>3</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="37"/>
       <c r="F23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="55"/>
+      <c r="H23" s="84"/>
       <c r="I23" s="36">
         <v>2</v>
       </c>
@@ -1627,176 +1619,166 @@
       <c r="B24" s="28">
         <v>4</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="28"/>
       <c r="F24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="53"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="36">
         <v>2</v>
       </c>
       <c r="J24" s="28"/>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="28">
+    <row r="25" spans="2:10" ht="15.6" customHeight="1">
+      <c r="B25" s="52">
         <v>5</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="28"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="36">
-        <v>1</v>
-      </c>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="28">
+      <c r="H25" s="90"/>
+      <c r="I25" s="50">
+        <v>4</v>
+      </c>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.6" customHeight="1">
+      <c r="B26" s="52">
         <v>6</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="35" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="88"/>
+      <c r="I26" s="51">
+        <v>2</v>
+      </c>
+      <c r="J26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6" customHeight="1">
+      <c r="B27" s="52">
+        <v>7</v>
+      </c>
+      <c r="C27" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="36">
-        <v>4</v>
-      </c>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="28">
-        <v>7</v>
-      </c>
-      <c r="C27" s="56" t="s">
+      <c r="D27" s="86"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43" t="s">
+      <c r="G27" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="44">
+      <c r="H27" s="86"/>
+      <c r="I27" s="50">
         <v>2</v>
       </c>
-      <c r="J27" s="38"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="28">
+      <c r="J27" s="52"/>
+    </row>
+    <row r="28" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B28" s="46">
         <v>8</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="35" t="s">
+      <c r="D28" s="79"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48">
+        <v>1280072</v>
+      </c>
+      <c r="G28" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="36">
-        <v>2</v>
-      </c>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B29" s="47">
+      <c r="H28" s="81"/>
+      <c r="I28" s="49">
         <v>9</v>
       </c>
-      <c r="C29" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49">
-        <v>1280072</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="50">
-        <v>9</v>
-      </c>
-      <c r="J29" s="47"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="26"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="26"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="45"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="45"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="45"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="26"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="12"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="18"/>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="26"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="12"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="26"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="15"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="26"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="12"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
@@ -1805,20 +1787,20 @@
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="26"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="12"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="13"/>
       <c r="F36" s="14"/>
       <c r="G36" s="22"/>
@@ -1828,19 +1810,19 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="12"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="13"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="23"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="15"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="12"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="13"/>
       <c r="F38" s="14"/>
       <c r="G38" s="20"/>
@@ -1849,10 +1831,10 @@
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="12"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="14"/>
       <c r="G39" s="20"/>
       <c r="H39" s="15"/>
@@ -1860,20 +1842,20 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="63"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="15"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="12"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
@@ -1882,31 +1864,31 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="12"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="63"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="15"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="12"/>
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
@@ -1915,15 +1897,15 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="12"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="8"/>
@@ -2178,66 +2160,15 @@
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
+  <mergeCells count="67">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G15:H15"/>
@@ -2252,14 +2183,52 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
